--- a/Assignment-pivot-tables-charts-Neha-Yewale.xlsx
+++ b/Assignment-pivot-tables-charts-Neha-Yewale.xlsx
@@ -19,7 +19,7 @@
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -1057,36 +1057,6 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="34" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1094,6 +1064,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1125,6 +1103,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1172,38 +1172,6 @@
     <cellStyle name="Warning Text" xfId="12" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1321,6 +1289,28 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="0"/>
@@ -1348,6 +1338,16 @@
           <color indexed="64"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1508,6 +1508,27 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -1531,6 +1552,26 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Q5,6,7'!$B$5:$B$11</c:f>
@@ -1594,11 +1635,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="151143168"/>
-        <c:axId val="159447680"/>
+        <c:axId val="231818752"/>
+        <c:axId val="231820288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151143168"/>
+        <c:axId val="231818752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1607,7 +1648,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159447680"/>
+        <c:crossAx val="231820288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1615,27 +1656,28 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159447680"/>
+        <c:axId val="231820288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151143168"/>
+        <c:crossAx val="231818752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1651,7 +1693,6 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
@@ -1688,6 +1729,27 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -1711,6 +1773,26 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Q8-Dashboard'!$B$17:$B$21</c:f>
@@ -1762,11 +1844,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="45298816"/>
-        <c:axId val="45300352"/>
+        <c:axId val="235928576"/>
+        <c:axId val="180364032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45298816"/>
+        <c:axId val="235928576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1775,7 +1857,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45300352"/>
+        <c:crossAx val="180364032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1783,18 +1865,24 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45300352"/>
+        <c:axId val="180364032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45298816"/>
+        <c:crossAx val="235928576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1856,6 +1944,27 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -1877,6 +1986,26 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:spPr/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Q8-Dashboard'!$B$26:$B$32</c:f>
@@ -1942,11 +2071,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="45325696"/>
-        <c:axId val="46344064"/>
+        <c:axId val="180388608"/>
+        <c:axId val="180390144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="45325696"/>
+        <c:axId val="180388608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1955,7 +2084,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46344064"/>
+        <c:crossAx val="180390144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1963,27 +2092,28 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46344064"/>
+        <c:axId val="180390144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45325696"/>
+        <c:crossAx val="180388608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1999,7 +2129,6 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
@@ -2490,7 +2619,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B12:C17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField numFmtId="22" showAll="0"/>
@@ -2556,10 +2685,10 @@
     <dataField name="Sum of Sales" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="3">
+    <format dxfId="10">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="9">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -2592,7 +2721,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B4:C11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
@@ -2673,7 +2802,7 @@
     <dataField name="Sum of Sales" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="8">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -2698,7 +2827,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B25:C32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" numFmtId="22" showAll="0">
@@ -2799,7 +2928,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B16:C21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField numFmtId="22" showAll="0"/>
@@ -2884,7 +3013,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B2:C9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" numFmtId="22" showAll="0">
@@ -2957,10 +3086,10 @@
     <dataField name="Average of Sales" fld="3" subtotal="average" baseField="0" baseItem="1"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="9">
+    <format dxfId="1">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="0">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -2985,7 +3114,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B13:C19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField numFmtId="22" showAll="0"/>
@@ -3046,10 +3175,10 @@
     <dataField name="Sum of Sales" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="11">
+    <format dxfId="3">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="2">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -3413,13 +3542,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -3747,7 +3876,7 @@
       <c r="E17" s="8">
         <v>71</v>
       </c>
-      <c r="G17" s="48"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
@@ -3765,7 +3894,7 @@
       <c r="E18" s="8">
         <v>81</v>
       </c>
-      <c r="G18" s="49"/>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
@@ -3850,8 +3979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3866,98 +3995,98 @@
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="21" t="s">
@@ -4011,229 +4140,222 @@
       <c r="A19" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
     </row>
     <row r="30" spans="1:8" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B38:H39"/>
-    <mergeCell ref="B32:H33"/>
-    <mergeCell ref="B24:H25"/>
-    <mergeCell ref="B26:H27"/>
-    <mergeCell ref="B22:H23"/>
-    <mergeCell ref="B34:H35"/>
-    <mergeCell ref="B36:H37"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="B7:H7"/>
@@ -4244,9 +4366,16 @@
     <mergeCell ref="B8:H10"/>
     <mergeCell ref="B19:H20"/>
     <mergeCell ref="B28:H29"/>
+    <mergeCell ref="B38:H39"/>
+    <mergeCell ref="B32:H33"/>
+    <mergeCell ref="B24:H25"/>
+    <mergeCell ref="B26:H27"/>
+    <mergeCell ref="B22:H23"/>
+    <mergeCell ref="B34:H35"/>
+    <mergeCell ref="B36:H37"/>
   </mergeCells>
   <conditionalFormatting pivot="1" sqref="C13:C16">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
       <formula>400</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4258,8 +4387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4275,23 +4404,23 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
@@ -4305,8 +4434,8 @@
       <c r="C4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
@@ -4315,8 +4444,8 @@
       <c r="C5" s="14">
         <v>1281</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
@@ -4325,8 +4454,8 @@
       <c r="C6" s="14">
         <v>1032</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
@@ -4335,8 +4464,8 @@
       <c r="C7" s="14">
         <v>958</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
@@ -4345,8 +4474,8 @@
       <c r="C8" s="14">
         <v>1155</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
@@ -4355,8 +4484,8 @@
       <c r="C9" s="14">
         <v>1286</v>
       </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
@@ -4365,8 +4494,8 @@
       <c r="C10" s="14">
         <v>1117</v>
       </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
@@ -4377,88 +4506,88 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="27"/>
@@ -4470,55 +4599,55 @@
       <c r="A27" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="53"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="45"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="54"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="56"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="48"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="24"/>
@@ -4554,8 +4683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4571,34 +4700,34 @@
       <c r="A1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
@@ -4611,114 +4740,114 @@
       <c r="A6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
@@ -4727,14 +4856,14 @@
       <c r="C16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
@@ -4743,14 +4872,14 @@
       <c r="C17" s="18">
         <v>467</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
@@ -4759,14 +4888,14 @@
       <c r="C18" s="18">
         <v>347</v>
       </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="17" t="s">
@@ -4775,14 +4904,14 @@
       <c r="C19" s="18">
         <v>2518</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
@@ -4791,14 +4920,14 @@
       <c r="C20" s="18">
         <v>3497</v>
       </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
@@ -4807,40 +4936,40 @@
       <c r="C21" s="18">
         <v>6829</v>
       </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="21" t="s">
@@ -4849,14 +4978,14 @@
       <c r="C25" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="30" t="s">
@@ -4865,14 +4994,14 @@
       <c r="C26" s="18">
         <v>1281</v>
       </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="30" t="s">
@@ -4881,14 +5010,14 @@
       <c r="C27" s="18">
         <v>1032</v>
       </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="30" t="s">
@@ -4897,14 +5026,14 @@
       <c r="C28" s="18">
         <v>958</v>
       </c>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
@@ -4913,14 +5042,14 @@
       <c r="C29" s="18">
         <v>1155</v>
       </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="30" t="s">
@@ -4929,14 +5058,14 @@
       <c r="C30" s="18">
         <v>1286</v>
       </c>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="s">
@@ -4945,14 +5074,14 @@
       <c r="C31" s="18">
         <v>1117</v>
       </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="30" t="s">
@@ -4961,64 +5090,64 @@
       <c r="C32" s="18">
         <v>6829</v>
       </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
     </row>
     <row r="34" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
     </row>
     <row r="35" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
     </row>
     <row r="36" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5047,7 +5176,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5064,14 +5193,14 @@
       <c r="A1" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
@@ -5152,22 +5281,22 @@
       <c r="A11" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
